--- a/apidata/momentum/07-08-2023/report_07-08-2023.xlsx
+++ b/apidata/momentum/07-08-2023/report_07-08-2023.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>660</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>660</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="7"/>
@@ -952,7 +952,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-08-07 12:58:00</t>
+          <t>2023-08-07 12:23:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -980,13 +980,13 @@
         <v>13000</v>
       </c>
       <c r="I18" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="J18" t="n">
-        <v>85150</v>
+        <v>83850</v>
       </c>
       <c r="K18" t="n">
-        <v>85150</v>
+        <v>83850</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -997,21 +997,21 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-07 13:15:00</t>
+          <t>2023-08-07 13:03:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RECLTD31AUG23C210</t>
+          <t>DIXON31AUG23P4500</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>54701</v>
+        <v>112834</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1019,30 +1019,30 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="H19" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="I19" t="n">
-        <v>6.85</v>
+        <v>158.3</v>
       </c>
       <c r="J19" t="n">
-        <v>54800</v>
+        <v>63320</v>
       </c>
       <c r="K19" t="n">
-        <v>-54800</v>
+        <v>63320</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-07 13:16:00</t>
+          <t>2023-08-07 13:15:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1076,32 +1076,32 @@
         <v>54800</v>
       </c>
       <c r="K20" t="n">
-        <v>54800</v>
+        <v>-54800</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-07 13:33:00</t>
+          <t>2023-08-07 13:16:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DIXON31AUG23P4500</t>
+          <t>RECLTD31AUG23C210</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>112834</v>
+        <v>54701</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1109,19 +1109,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="H21" t="n">
-        <v>400</v>
+        <v>8000</v>
       </c>
       <c r="I21" t="n">
-        <v>146</v>
+        <v>6.85</v>
       </c>
       <c r="J21" t="n">
-        <v>58400</v>
+        <v>54800</v>
       </c>
       <c r="K21" t="n">
-        <v>58400</v>
+        <v>54800</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-07 14:19:00</t>
+          <t>2023-08-07 15:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VEDL31AUG23P241.5</t>
+          <t>RECLTD31AUG23C212.5</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>149834</v>
+        <v>54711</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,23 +1424,23 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H28" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="I28" t="n">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>104000</v>
+        <v>51200</v>
       </c>
       <c r="K28" t="n">
-        <v>104000</v>
+        <v>-51200</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>DEEPAKNTR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RECLTD31AUG23C212.5</t>
+          <t>DEEPAKNTR31AUG23C2040</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>54711</v>
+        <v>111988</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="H29" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="I29" t="n">
-        <v>6.4</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>51200</v>
+        <v>96420</v>
       </c>
       <c r="K29" t="n">
-        <v>-51200</v>
+        <v>-96420</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1497,16 +1497,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DEEPAKNTR</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DEEPAKNTR31AUG23C2040</t>
+          <t>BHEL31AUG23C97</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>111988</v>
+        <v>98536</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="H30" t="n">
-        <v>1200</v>
+        <v>21000</v>
       </c>
       <c r="I30" t="n">
-        <v>80.34999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>96420</v>
+        <v>73500</v>
       </c>
       <c r="K30" t="n">
-        <v>-96420</v>
+        <v>-73500</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BHEL31AUG23C97</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>98536</v>
+        <v>38455</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10500</v>
+        <v>5100</v>
       </c>
       <c r="H31" t="n">
-        <v>21000</v>
+        <v>10200</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>73500</v>
+        <v>87210</v>
       </c>
       <c r="K31" t="n">
-        <v>-73500</v>
+        <v>-87210</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>VEDL31AUG23P237.5</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38455</v>
+        <v>178928</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="H32" t="n">
-        <v>10200</v>
+        <v>12000</v>
       </c>
       <c r="I32" t="n">
-        <v>8.550000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>87210</v>
+        <v>98400</v>
       </c>
       <c r="K32" t="n">
-        <v>-87210</v>
+        <v>-98400</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1627,21 +1627,21 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-07 15:15:00</t>
+          <t>2023-08-07 15:26:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VEDL31AUG23P237.5</t>
+          <t>RECLTD31AUG23C212.5</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>178928</v>
+        <v>54711</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,23 +1649,23 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H33" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I33" t="n">
-        <v>8.199999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="J33" t="n">
-        <v>98400</v>
+        <v>50000</v>
       </c>
       <c r="K33" t="n">
-        <v>-98400</v>
+        <v>50000</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>DEEPAKNTR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RECLTD31AUG23C212.5</t>
+          <t>DEEPAKNTR31AUG23C2040</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54711</v>
+        <v>111988</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="H34" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>77.7</v>
       </c>
       <c r="J34" t="n">
-        <v>50000</v>
+        <v>93240</v>
       </c>
       <c r="K34" t="n">
-        <v>50000</v>
+        <v>93240</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DEEPAKNTR</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DEEPAKNTR31AUG23C2040</t>
+          <t>BHEL31AUG23C97</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>111988</v>
+        <v>98536</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="H35" t="n">
-        <v>1200</v>
+        <v>21000</v>
       </c>
       <c r="I35" t="n">
-        <v>77.7</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>93240</v>
+        <v>73500</v>
       </c>
       <c r="K35" t="n">
-        <v>93240</v>
+        <v>73500</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BHEL31AUG23C97</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>98536</v>
+        <v>38455</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10500</v>
+        <v>5100</v>
       </c>
       <c r="H36" t="n">
-        <v>21000</v>
+        <v>10200</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>73500</v>
+        <v>87210</v>
       </c>
       <c r="K36" t="n">
-        <v>73500</v>
+        <v>87210</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1812,16 +1812,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>HINDCOPPER31AUG23P149</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38455</v>
+        <v>38808</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H37" t="n">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I37" t="n">
-        <v>8.550000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="J37" t="n">
-        <v>87210</v>
+        <v>75260</v>
       </c>
       <c r="K37" t="n">
-        <v>87210</v>
+        <v>75260</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1857,16 +1857,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HINDCOPPER31AUG23P149</t>
+          <t>VEDL31AUG23P241.5</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38808</v>
+        <v>149834</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5300</v>
+        <v>2000</v>
       </c>
       <c r="H38" t="n">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="I38" t="n">
-        <v>7.1</v>
+        <v>10.8</v>
       </c>
       <c r="J38" t="n">
-        <v>75260</v>
+        <v>108000</v>
       </c>
       <c r="K38" t="n">
-        <v>75260</v>
+        <v>108000</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-08-07 12:58:00</t>
+          <t>2023-08-07 12:23:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2499,13 +2499,13 @@
         <v>13000</v>
       </c>
       <c r="I58" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="J58" t="n">
-        <v>85150</v>
+        <v>83850</v>
       </c>
       <c r="K58" t="n">
-        <v>85150</v>
+        <v>83850</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-3900</v>
+        <v>-5200</v>
       </c>
     </row>
     <row r="60"/>
@@ -2572,7 +2572,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-07 13:33:00</t>
+          <t>2023-08-07 13:03:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2600,13 +2600,13 @@
         <v>400</v>
       </c>
       <c r="I62" t="n">
-        <v>146</v>
+        <v>158.3</v>
       </c>
       <c r="J62" t="n">
-        <v>58400</v>
+        <v>63320</v>
       </c>
       <c r="K62" t="n">
-        <v>58400</v>
+        <v>63320</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-8980</v>
+        <v>-4059.999999999993</v>
       </c>
     </row>
     <row r="64"/>
@@ -2774,7 +2774,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-08-07 14:19:00</t>
+          <t>2023-08-07 15:26:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2802,13 +2802,13 @@
         <v>10000</v>
       </c>
       <c r="I70" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="J70" t="n">
-        <v>104000</v>
+        <v>108000</v>
       </c>
       <c r="K70" t="n">
-        <v>104000</v>
+        <v>108000</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="72"/>
